--- a/spotify_project/model/data/output_playlist_df.xlsx
+++ b/spotify_project/model/data/output_playlist_df.xlsx
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" t="n">
         <v>1.4751936e+18</v>
@@ -788,7 +788,7 @@
         <v>0.3997163120567376</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.48</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0.4522501611863313</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4605263157894737</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0.1586073500967117</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>1.4751936e+18</v>
@@ -1316,7 +1316,7 @@
         <v>0.9488845905867183</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2763157894736842</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0.5031764453041049</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" t="n">
         <v>1.4399424e+18</v>
@@ -3604,7 +3604,7 @@
         <v>0.4768106597893831</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3026315789473684</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
@@ -5540,7 +5540,7 @@
         <v>0.3265334192993767</v>
       </c>
       <c r="X29" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="Y29" t="b">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M33" t="n">
         <v>1.4805504e+18</v>
@@ -6244,7 +6244,7 @@
         <v>0.05782076079948425</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5131578947368421</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="Y33" t="b">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>0.2744637868042123</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         <v>0.6901353965183752</v>
       </c>
       <c r="X35" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="Y35" t="b">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0.3352159896840748</v>
       </c>
       <c r="X36" t="n">
-        <v>0.6973684210526315</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="Y36" t="b">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>0.5370040833870621</v>
       </c>
       <c r="X37" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="Y37" t="b">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M38" t="n">
         <v>1.356048e+18</v>
@@ -7124,7 +7124,7 @@
         <v>0.3940855362131958</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="Y38" t="b">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M40" t="n">
         <v>1.4751936e+18</v>
@@ -7476,7 +7476,7 @@
         <v>0.2378680421233612</v>
       </c>
       <c r="X40" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y40" t="b">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M41" t="n">
         <v>1.4775264e+18</v>
@@ -7652,7 +7652,7 @@
         <v>0.1674618525682355</v>
       </c>
       <c r="X41" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6</v>
       </c>
       <c r="Y41" t="b">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0.1418783580485708</v>
       </c>
       <c r="X42" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="Y42" t="b">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M45" t="n">
         <v>1.4775264e+18</v>
@@ -8356,7 +8356,7 @@
         <v>0.4857081452826134</v>
       </c>
       <c r="X45" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="Y45" t="b">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0.2618611648398882</v>
       </c>
       <c r="X46" t="n">
-        <v>0.8552631578947368</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>0.4000257898130237</v>
       </c>
       <c r="X47" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y47" t="b">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M48" t="n">
         <v>1.4751936e+18</v>
@@ -8884,7 +8884,7 @@
         <v>0.7616763378465505</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4078947368421053</v>
+        <v>0.4</v>
       </c>
       <c r="Y48" t="b">
         <v>0</v>
@@ -10116,7 +10116,7 @@
         <v>0.4597206103589082</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="Y55" t="b">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>0.4941843971631205</v>
       </c>
       <c r="X56" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="Y56" t="b">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M57" t="n">
         <v>1.4745888e+18</v>
@@ -10468,7 +10468,7 @@
         <v>0.3128648183967332</v>
       </c>
       <c r="X57" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="Y57" t="b">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>0.3821620459918332</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y58" t="b">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0.4167375886524822</v>
       </c>
       <c r="X59" t="n">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="Y59" t="b">
         <v>0</v>
@@ -10996,7 +10996,7 @@
         <v>0.296307758435418</v>
       </c>
       <c r="X60" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="Y60" t="b">
         <v>0</v>
@@ -11304,7 +11304,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M62" t="n">
         <v>1.3315104e+18</v>
@@ -11348,7 +11348,7 @@
         <v>0.4423468729851708</v>
       </c>
       <c r="X62" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.36</v>
       </c>
       <c r="Y62" t="b">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0.5355512572533848</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4342105263157895</v>
+        <v>0.44</v>
       </c>
       <c r="Y65" t="b">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M74" t="n">
         <v>4.417632e+17</v>
@@ -13636,7 +13636,7 @@
         <v>0.6755727487642381</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="Y75" t="b">
         <v>1</v>
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M81" t="n">
         <v>1.4903136e+18</v>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0.4078947368421053</v>
+        <v>0.4</v>
       </c>
       <c r="Y81" t="b">
         <v>0</v>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M82" t="n">
         <v>1.4903136e+18</v>
@@ -14868,7 +14868,7 @@
         <v>0.305471738663228</v>
       </c>
       <c r="X82" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="Y82" t="b">
         <v>1</v>
@@ -15044,7 +15044,7 @@
         <v>0.8120438426821406</v>
       </c>
       <c r="X83" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="Y83" t="b">
         <v>0</v>
@@ -15220,7 +15220,7 @@
         <v>0.4850204169353104</v>
       </c>
       <c r="X84" t="n">
-        <v>0.7236842105263158</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Y84" t="b">
         <v>0</v>
@@ -15352,7 +15352,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M85" t="n">
         <v>1.3627008e+18</v>
@@ -15396,7 +15396,7 @@
         <v>0.4948377390930582</v>
       </c>
       <c r="X85" t="n">
-        <v>0.5657894736842105</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y85" t="b">
         <v>0</v>
@@ -15704,7 +15704,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M87" t="n">
         <v>1.057104e+18</v>
@@ -15748,7 +15748,7 @@
         <v>0.2271394799054373</v>
       </c>
       <c r="X87" t="n">
-        <v>0.6710526315789473</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y87" t="b">
         <v>0</v>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M88" t="n">
         <v>1.5205536e+18</v>
@@ -15924,7 +15924,7 @@
         <v>0.5712185686653771</v>
       </c>
       <c r="X88" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.28</v>
       </c>
       <c r="Y88" t="b">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M89" t="n">
         <v>1.5205536e+18</v>
@@ -16100,7 +16100,7 @@
         <v>0.9478959810874704</v>
       </c>
       <c r="X89" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="Y89" t="b">
         <v>1</v>
@@ -16232,7 +16232,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M90" t="n">
         <v>1.5205536e+18</v>
@@ -16276,7 +16276,7 @@
         <v>0.07850419084461635</v>
       </c>
       <c r="X90" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="Y90" t="b">
         <v>0</v>
@@ -16628,7 +16628,7 @@
         <v>0.1838469804427251</v>
       </c>
       <c r="X92" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="Y92" t="b">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0.1811820330969267</v>
       </c>
       <c r="X93" t="n">
-        <v>0.1447368421052632</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="Y93" t="b">
         <v>0</v>
@@ -16980,7 +16980,7 @@
         <v>0.3842940038684718</v>
       </c>
       <c r="X94" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="Y94" t="b">
         <v>0</v>
@@ -17156,7 +17156,7 @@
         <v>0.5543778207607994</v>
       </c>
       <c r="X95" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="Y95" t="b">
         <v>0</v>
@@ -17288,7 +17288,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M96" t="n">
         <v>1.5386976e+18</v>
@@ -17332,7 +17332,7 @@
         <v>0.5905695250376102</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5657894736842105</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y96" t="b">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0.5621233612722975</v>
       </c>
       <c r="X97" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="Y97" t="b">
         <v>0</v>
@@ -17684,7 +17684,7 @@
         <v>0.3136127229744251</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="Y98" t="b">
         <v>0</v>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M100" t="n">
         <v>1.4068512e+18</v>
@@ -18036,7 +18036,7 @@
         <v>0.3046120782290995</v>
       </c>
       <c r="X100" t="n">
-        <v>0.5921052631578947</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="Y100" t="b">
         <v>0</v>
@@ -18168,7 +18168,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M101" t="n">
         <v>1.4068512e+18</v>
@@ -18212,7 +18212,7 @@
         <v>0.5224070492155598</v>
       </c>
       <c r="X101" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.48</v>
       </c>
       <c r="Y101" t="b">
         <v>0</v>
